--- a/mySystem/mySystem/xls/LDPE/SOP-MFG-102-R02A 生产退料记录.xlsx
+++ b/mySystem/mySystem/xls/LDPE/SOP-MFG-102-R02A 生产退料记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mySystem\mySystem\xls\CSBag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\upload\mitcpro\mySystem\mySystem\xls\LDPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <r>
       <rPr>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> SOP-MFG-102-R02A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>产品代码：</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -113,32 +109,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>审核员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>操作人</t>
-  </si>
-  <si>
-    <t>操作人备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>复核人</t>
@@ -148,8 +119,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -217,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -299,92 +270,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -418,10 +312,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -439,22 +336,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -478,7 +366,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -740,28 +628,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="112" zoomScaleNormal="100" zoomScalePageLayoutView="112" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.2" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="24.2" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="23.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="4" customWidth="1"/>
-    <col min="9" max="10" width="10.375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.25" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="7.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,254 +662,219 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="35.450000000000003" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" ht="24.75" customHeight="1">
-      <c r="A3" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
       <c r="F3" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="J3" s="18"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A15" s="24" t="s">
+      <c r="I4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
-    </row>
-    <row r="16" spans="1:13" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A16" s="21" t="s">
+      <c r="J4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
-    </row>
-    <row r="17" spans="2:3" ht="24.2" customHeight="1">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:12" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:K2"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/LDPE/SOP-MFG-102-R02A 生产退料记录.xlsx
+++ b/mySystem/mySystem/xls/LDPE/SOP-MFG-102-R02A 生产退料记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\upload\mitcpro\mySystem\mySystem\xls\LDPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ERPsystem\mitcpro\mySystem\mySystem\xls\LDPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -46,21 +46,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产指令编号：</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -113,14 +98,18 @@
   </si>
   <si>
     <t>复核人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 生产指令编号：</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -172,6 +161,20 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -274,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -291,27 +294,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,32 +309,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -366,7 +357,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -630,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="112" zoomScaleNormal="100" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J3"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A7" zoomScale="112" zoomScaleNormal="100" zoomScalePageLayoutView="112" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.2" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -664,209 +655,209 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="18"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="13"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="F4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="8"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:12" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/mySystem/mySystem/xls/LDPE/SOP-MFG-102-R02A 生产退料记录.xlsx
+++ b/mySystem/mySystem/xls/LDPE/SOP-MFG-102-R02A 生产退料记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ERPsystem\mitcpro\mySystem\mySystem\xls\LDPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mitcpro\mySystem\mySystem\xls\LDPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,19 +50,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>物料简称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>物料代码</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>物料批号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>领料日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -102,6 +94,14 @@
   </si>
   <si>
     <t xml:space="preserve"> 生产指令编号：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>退料日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -300,6 +300,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -320,15 +329,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A7" zoomScale="112" zoomScaleNormal="100" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A4" zoomScale="112" zoomScaleNormal="100" zoomScalePageLayoutView="112" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.2" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -655,195 +655,195 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
+      <c r="A2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="13"/>
+      <c r="A3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="16"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>14</v>
+      <c r="I4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
